--- a/biology/Zoologie/Eurema_mexicana/Eurema_mexicana.xlsx
+++ b/biology/Zoologie/Eurema_mexicana/Eurema_mexicana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema mexicana est un  insecte lépidoptère de la famille des Pieridae de la sous-famille des Coliadinae et du genre Eurema.
 </t>
@@ -511,15 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eurema mexicana a été nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836.
-Synonyme : Terias mexicana Boisduval, [1836][1].
-Noms vernaculaires
-Eurema mexicana se nomme Mexican Yellow en anglais[1].
-Sous-espèces
-Eurema  mexicana  mexicana ; en Arizona, au Texas, au Kansas et au Mexique et au Honduras
-Eurema  mexicana bogotana (C. &amp; R. Felder, 1861) ; en Colombie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema mexicana a été nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836.
+Synonyme : Terias mexicana Boisduval, .
+</t>
         </is>
       </c>
     </row>
@@ -544,15 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurema mexicana est un papillon de taille moyenne (son envergure varie de 44 à 63 mm) aux ailes postérieures découpées en pointe, de couleur crème à jaune très pâle bordées de noir, formant à l'apex des antérieures un dessin dit en« tête de loup »[2].
-Le revers est de couleur crème à jaune très pâle.
-Chenille
-La chenille est de couleur vert pâle[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema mexicana se nomme Mexican Yellow en anglais.
 </t>
         </is>
       </c>
@@ -578,15 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un migrateur : il est résidant en Amérique du Sud, Amérique Centrale et dans le sud du Texas et migrateur dans tout l'ouest des États-Unis et particulièrement dans le Mississippi, Arkansas, Illinois, et le Michigan[3],[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille  des Cassia et Diphysa robinoides[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eurema  mexicana  mexicana ; en Arizona, au Texas, au Kansas et au Mexique et au Honduras
+Eurema  mexicana bogotana (C. &amp; R. Felder, 1861) ; en Colombie.</t>
         </is>
       </c>
     </row>
@@ -611,17 +628,230 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema mexicana est un papillon de taille moyenne (son envergure varie de 44 à 63 mm) aux ailes postérieures découpées en pointe, de couleur crème à jaune très pâle bordées de noir, formant à l'apex des antérieures un dessin dit en« tête de loup ».
+Le revers est de couleur crème à jaune très pâle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurema_mexicana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_mexicana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est de couleur vert pâle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurema_mexicana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_mexicana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un migrateur : il est résidant en Amérique du Sud, Amérique Centrale et dans le sud du Texas et migrateur dans tout l'ouest des États-Unis et particulièrement dans le Mississippi, Arkansas, Illinois, et le Michigan,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurema_mexicana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_mexicana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille  des Cassia et Diphysa robinoides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eurema_mexicana</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_mexicana</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema mexicana  est présent dans toute l'Amérique du Sud et dans le centre de l'Amérique du Nord Amérique Centrale et dans le sud du Texas[1]
-Il est migrateur habituel dans l'ensemble des plaines du centre des États-Unis, plus rare dans l'est sur la côte atlantique et dans le nord-ouest. Il est migrateur occasionnel plus au nord avec comme limite au Canada le sud de l'Ontario et du Manitoba[4],[2].
-Biotope
-Il réside dans les espaces ouverts.
-Protection
-Pas de statut de protection particulier[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema mexicana  est présent dans toute l'Amérique du Sud et dans le centre de l'Amérique du Nord Amérique Centrale et dans le sud du Texas
+Il est migrateur habituel dans l'ensemble des plaines du centre des États-Unis, plus rare dans l'est sur la côte atlantique et dans le nord-ouest. Il est migrateur occasionnel plus au nord avec comme limite au Canada le sud de l'Ontario et du Manitoba,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eurema_mexicana</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_mexicana</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les espaces ouverts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eurema_mexicana</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_mexicana</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Eurema mexicana, sur Wikimedia CommonsEurema mexicana, sur Wikispecies
 </t>
